--- a/ExcelConfig/player.玩家.xlsx
+++ b/ExcelConfig/player.玩家.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>sheet名</t>
   </si>
@@ -311,6 +311,171 @@
   </si>
   <si>
     <t>skills[2]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家买血瓶数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家购买复活石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebornBuyHpBottleNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebornBuyResurrectStone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5eb22f003744a60405dbbb87_test_player_001</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5eb22f003744a60405dbbb87_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_player_002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5eb22f003744a60405dbbb87_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_player_003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5eb22f003744a60405dbbb87_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_player_004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -943,17 +1108,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="45.875" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
@@ -961,9 +1126,11 @@
     <col min="9" max="9" width="11.625" customWidth="1"/>
     <col min="10" max="10" width="11.125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="25.625" customWidth="1"/>
+    <col min="13" max="13" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -997,8 +1164,14 @@
       <c r="K1" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="L1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1032,8 +1205,14 @@
       <c r="K2" t="s">
         <v>45</v>
       </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1067,8 +1246,14 @@
       <c r="K3" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1079,7 +1264,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
@@ -1102,8 +1287,14 @@
       <c r="K4" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="L4" s="3">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1113,8 +1304,8 @@
       <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
+      <c r="D5" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>24</v>
@@ -1137,8 +1328,14 @@
       <c r="K5" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="L5" s="3">
+        <v>40</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1148,8 +1345,8 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
+      <c r="D6" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>24</v>
@@ -1172,8 +1369,14 @@
       <c r="K6" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="L6" s="3">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1183,8 +1386,8 @@
       <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>24</v>
@@ -1206,6 +1409,12 @@
       </c>
       <c r="K7" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="L7" s="3">
+        <v>40</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
